--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_115.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_115.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(53.28, 62.86)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E'], ['C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:24.180000', '0:00:30.020000'), ('0:01:04.680000', '0:01:10.020000'), ('0:00:23.080000', '0:00:27.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:38.120000', '0:00:45.760000'), ('0:00:35.140000', '0:00:43.900000'), ('0:00:41.180000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_212</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.46, 26.48)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(54.78, 57.52)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1108622620380739</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1410105757931845</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(52.674489, 57.42297)]</t>
+          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(101.773, 108.586)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:17.160000', '0:00:20.680000'), ('0:00:18.920000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:03.020000', '0:04:04.860000'), ('0:03:20.580000', '0:03:21.820000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'C:min'], ['G:min', 'C:min', 'F:maj']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:min', 'A:min'], ['A:min', 'D:min', 'G']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(312.842, 317.997), (59.327, 69.521)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.850816, 6.821428), (5.497891, 9.516363)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1194852941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(2.56, 21.44)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2554347826086957</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1893687707641196</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>[['E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.34, 11.68)]</t>
+          <t>[['E', 'A:min', 'G', 'F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(130.148, 132.444)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:26.400000', '0:00:29.960000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.02, 24.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.446618, 13.878853)]</t>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3164835164835165</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(53.5, 62.72)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.527551, 52.14687)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/b7']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(52.386, 56.294)]</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.976734, 18.678775)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.420489, 5.694779)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(63.04, 65.24)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.58, 20.1)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_30</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(10.94, 14.56), (19.26, 22.26), (15.12, 16.42)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.8, 18.44), (24.26, 27.2), (19.12, 20.76)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.88, 15.96), (8.24, 18.54)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.14, 7.7), (2.3, 9.88)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2807692307692308</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.34, 36.3)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09351927809680066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(31.898979, 34.035215)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
